--- a/testsunitaires/sm_v1b.xlsx
+++ b/testsunitaires/sm_v1b.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="50">
   <si>
     <t xml:space="preserve">Modele import reconditionneur pro (format xls)</t>
   </si>
@@ -127,7 +127,7 @@
     <t xml:space="preserve">Blanc</t>
   </si>
   <si>
-    <t xml:space="preserve">A</t>
+    <t xml:space="preserve">err</t>
   </si>
   <si>
     <t xml:space="preserve">Samsung</t>
@@ -140,6 +140,9 @@
   </si>
   <si>
     <t xml:space="preserve">1 Go</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C</t>
   </si>
   <si>
     <t xml:space="preserve">Alcatel </t>
@@ -176,7 +179,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -197,6 +200,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -253,7 +263,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -274,7 +284,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -358,7 +372,7 @@
   <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L14" activeCellId="0" sqref="L14"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="5:5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -433,7 +447,7 @@
       <c r="S2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="T2" s="4" t="s">
         <v>21</v>
       </c>
     </row>
@@ -447,10 +461,10 @@
       <c r="C3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="5" t="s">
         <v>25</v>
       </c>
       <c r="F3" s="3" t="n">
@@ -462,10 +476,10 @@
       <c r="H3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="5" t="s">
         <v>29</v>
       </c>
       <c r="K3" s="3" t="n">
@@ -492,7 +506,7 @@
       <c r="R3" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="S3" s="3" t="s">
+      <c r="S3" s="4" t="s">
         <v>35</v>
       </c>
       <c r="T3" s="3"/>
@@ -507,10 +521,10 @@
       <c r="C4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="5" t="s">
         <v>37</v>
       </c>
       <c r="F4" s="3" t="s">
@@ -522,10 +536,10 @@
       <c r="H4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="5" t="s">
         <v>39</v>
       </c>
       <c r="K4" s="3" t="s">
@@ -552,42 +566,42 @@
       <c r="R4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="S4" s="3" t="s">
-        <v>20</v>
+      <c r="S4" s="4" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D5" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" s="5" t="s">
+      <c r="D5" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="I5" s="0" t="s">
+      <c r="E5" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="J5" s="0" t="s">
+      <c r="I5" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J5" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="S5" s="0" t="s">
-        <v>43</v>
+      <c r="S5" s="4" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D6" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6" s="5" t="s">
+      <c r="D6" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="I6" s="0" t="s">
+      <c r="E6" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="J6" s="0" t="s">
+      <c r="I6" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="S6" s="0" t="s">
+      <c r="J6" s="5" t="s">
         <v>48</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
